--- a/docs/10_general/code_definitions.xlsx
+++ b/docs/10_general/code_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\dvlife\dvlife-api\docs\10_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F696E9A1-01D1-4F10-93BF-500B283A5071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C41F8D-D0AC-452E-97EF-9FE7C4215566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="1665" windowWidth="23475" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="3015" windowWidth="23475" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コード定義" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="131">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -141,21 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ソート順</t>
-    <rPh sb="3" eb="4">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グループ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -298,10 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通貨</t>
     <rPh sb="0" eb="2">
       <t>ツウカ</t>
@@ -461,6 +442,283 @@
   </si>
   <si>
     <t>GEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MgmtCompanyClass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BANK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>証券会社</t>
+    <rPh sb="0" eb="4">
+      <t>ショウケンガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産クラス</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssetClass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現金</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保険</t>
+    <rPh sb="0" eb="2">
+      <t>ホケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国内株式</t>
+    <rPh sb="0" eb="2">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カブシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国株式</t>
+    <rPh sb="0" eb="2">
+      <t>ガイコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カブシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投資信託</t>
+    <rPh sb="0" eb="2">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保険会社</t>
+    <rPh sb="0" eb="4">
+      <t>ホケンガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信託銀行</t>
+    <rPh sb="0" eb="4">
+      <t>シンタクギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用会社区分</t>
+    <rPh sb="0" eb="4">
+      <t>ウンヨウガイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SECURITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSURANCE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OTHER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CASH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DOMESTIC_STOCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOREIGN_STOCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FUND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRUST_BANK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用会社ステータス</t>
+    <rPh sb="0" eb="4">
+      <t>ウンヨウガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MgmtCompanyStatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産負債区分</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssetLiabType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負債</t>
+    <rPh sb="0" eb="2">
+      <t>フサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASSET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIABILITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住宅ローン</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOME_LOAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A401</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A402</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｽｴﾑﾋﾞｰｼｰﾆﾂｺｳｼﾖｳｹﾝ</t>
+  </si>
+  <si>
+    <t>確定拠出年金</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DC_PENSION</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -491,7 +749,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -529,6 +793,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -811,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -823,24 +1090,24 @@
     <col min="2" max="2" width="19.25" style="4" customWidth="1"/>
     <col min="3" max="4" width="19.75" style="4" customWidth="1"/>
     <col min="5" max="6" width="18.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="9.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="39.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="24.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="3" customWidth="1"/>
-    <col min="12" max="17" width="9" style="3"/>
-    <col min="18" max="19" width="13.875" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="9.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="39.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="3" customWidth="1"/>
+    <col min="11" max="16" width="9" style="3"/>
+    <col min="17" max="18" width="13.875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -855,13 +1122,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -877,11 +1141,8 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -897,11 +1158,8 @@
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -909,24 +1167,21 @@
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>17</v>
@@ -938,18 +1193,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
@@ -960,108 +1212,392 @@
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="F8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="4" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>48</v>
+      <c r="F13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f>DBCS(H36)</f>
+        <v>エスエムビーシーニツコウシヨウケン</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1612,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1100,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>12</v>
@@ -1115,268 +1651,268 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/docs/10_general/code_definitions.xlsx
+++ b/docs/10_general/code_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\dvlife\dvlife-api\docs\10_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C41F8D-D0AC-452E-97EF-9FE7C4215566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD9298-0C8A-4BBE-AE9B-7C630B027FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="3015" windowWidth="23475" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="1035" windowWidth="23475" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コード定義" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -702,9 +702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｴｽｴﾑﾋﾞｰｼｰﾆﾂｺｳｼﾖｳｹﾝ</t>
-  </si>
-  <si>
     <t>確定拠出年金</t>
     <rPh sb="0" eb="2">
       <t>カクテイ</t>
@@ -719,6 +716,46 @@
   </si>
   <si>
     <t>DC_PENSION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支区分</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IncomeOrExpense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収入</t>
+    <rPh sb="0" eb="2">
+      <t>シュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INCOME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPENSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EX</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1078,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1514,10 +1551,10 @@
         <v>86</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>124</v>
@@ -1591,13 +1628,38 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I36" s="3" t="str">
-        <f>DBCS(H36)</f>
-        <v>エスエムビーシーニツコウシヨウケン</v>
+    <row r="29" spans="2:7">
+      <c r="B29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
